--- a/biology/Botanique/Pétiole/Pétiole.xlsx
+++ b/biology/Botanique/Pétiole/Pétiole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9tiole</t>
+          <t>Pétiole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un pétiole  (prononcé [pe.sjɔl] du latin petiolus, « petit pied », issu de pes, pedis « pied », l'agronome romain Columelle adoptant ce terme au Ier siècle pour désigner la « queue des fruits ou des feuilles », d'où il a été repris par les botanistes) désigne la pièce foliaire, reliant le limbe à la tige. Le pétiole qui a la même structure interne qu'une tige, est composé d'un faisceau de vaisseaux conducteurs. Équivalent du pédoncule pour le fruit, il distribue la sève brute dans les feuilles, usines photosynthétiques qui produisent la sève élaborée (acides aminés, sucres, glycogène stabilisateur) qui est redistribuée dans les autres parties de la plante par ce même conduit.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9tiole</t>
+          <t>Pétiole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mode d'insertion
-Le mode d'insertion de la feuille sur la tige est très variable[1] : 
+          <t>Mode d'insertion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le mode d'insertion de la feuille sur la tige est très variable : 
 pétiolé : muni d'un pétiole
 sessile : sans pétiole ou à pétiole très court (subsessile) est dite sessile ou quasi-sessile. Le limbe est alors rattaché directement à la tige ou se prolonge sous la forme d'une base dilatée, la gaine foliaire.
-Autres : embrassant, semi-embrassant (on dit également amplexicaule, surtout lorsque la base du limbe est élargie), décurrent, engainant, conné, perfolié...
-Particularités
-La base du pétiole peut porter des appendices foliacés, expansions appelées stipules.
+Autres : embrassant, semi-embrassant (on dit également amplexicaule, surtout lorsque la base du limbe est élargie), décurrent, engainant, conné, perfolié...</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pétiole</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9tiole</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Particularités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La base du pétiole peut porter des appendices foliacés, expansions appelées stipules.
 Chez une feuille composée, le pétiolule désigne l'axe portant le limbe de chaque foliole.
 Lorsque le pétiole est élargi jusqu'à remplacer la feuille dans sa fonction, les botanistes parlent de phyllode.
 Certains pétioles peuvent avoir une taille importante par rapport au limbe ; cette taille peut être encore amplifiée par culture lorsque le pétiole a un intérêt culinaire ou économique (bette, cardon, céleri, rhubarbe…). Dans ce cas, le pétiole prend souvent un nom spécifique d'usage (carde, branche, côte…).
